--- a/ADC_time-F4.xlsx
+++ b/ADC_time-F4.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Java processing" sheetId="2" r:id="rId2"/>
     <sheet name="Triangle" sheetId="3" r:id="rId3"/>
+    <sheet name="TIM Generator" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
   <si>
     <t>SysCLK</t>
   </si>
@@ -265,6 +266,21 @@
   </si>
   <si>
     <t>bits (= convertion cycles)</t>
+  </si>
+  <si>
+    <t>SYSCLK</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>Pre out</t>
+  </si>
+  <si>
+    <t>PERIOD</t>
+  </si>
+  <si>
+    <t>Out</t>
   </si>
 </sst>
 </file>
@@ -878,11 +894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118253824"/>
-        <c:axId val="118264192"/>
+        <c:axId val="72734208"/>
+        <c:axId val="72736128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118253824"/>
+        <c:axId val="72734208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,7 +941,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118264192"/>
+        <c:crossAx val="72736128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -933,7 +949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118264192"/>
+        <c:axId val="72736128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +1000,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118253824"/>
+        <c:crossAx val="72734208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1932,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,7 +3148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3438,7 +3454,7 @@
   <dimension ref="B3:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3547,4 +3563,142 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>168000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <f>$B$3/(B6+1)</f>
+        <v>2000000</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <f>C6/(D6+1)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>83</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C11" si="0">$B$3/(B7+1)</f>
+        <v>2000000</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E11" si="1">C7/(D7+1)</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1680000</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="D9">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="D11">
+        <v>199</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>